--- a/case study propionate/results_V1.xlsx
+++ b/case study propionate/results_V1.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3846.11347663807</v>
+        <v>4150.640883136433</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8756.507566009093</v>
+        <v>9676.511341654197</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206667.6319567877</v>
+        <v>228381.1975844747</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7028.046058134471</v>
+        <v>5496.795799658239</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3846.11347663807</v>
+        <v>4150.64088313644</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8756.507566009093</v>
+        <v>9676.511341654201</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206667.6319567877</v>
+        <v>228381.1975831594</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7028.046058134471</v>
+        <v>5496.795799658239</v>
       </c>
     </row>
     <row r="11">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3769.191207105308</v>
+        <v>4067.628065473661</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8668.942490349003</v>
+        <v>9579.746228237562</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.15410951104182</v>
+        <v>105.1082831648694</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.92226953276142</v>
+        <v>83.01281766272777</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.56507566009094</v>
+        <v>96.76511341654104</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.94291060343428</v>
+        <v>3.25077164427432</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206667.6319567877</v>
+        <v>228381.1975808766</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3846.11347663807</v>
+        <v>4150.640883136389</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8756.507566009093</v>
+        <v>9676.511341654104</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206667.6319567877</v>
+        <v>228381.1975808766</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.09702011447609</v>
+        <v>108.3590548091438</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>219270.2529994348</v>
+        <v>242208.349805667</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4414.365905151422</v>
+        <v>4876.15746641147</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24777.53858893613</v>
+        <v>27369.54352804038</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5451.058489565949</v>
+        <v>6021.299576168884</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3731.499295034256</v>
+        <v>4026.951784818923</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.68942490349005</v>
+        <v>95.79746228237563</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37.6919120710531</v>
+        <v>40.67628065473661</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8582.253065445513</v>
+        <v>9483.948765955189</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3769.191207105308</v>
+        <v>4067.62806547366</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8668.942490349003</v>
+        <v>9579.746228237564</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12438.13369745431</v>
+        <v>13647.37429371122</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9577.362947039819</v>
+        <v>10508.47820615764</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2107.01984834876</v>
+        <v>2311.865205354681</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3731.499295034256</v>
+        <v>4026.951784818923</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8582.253065445513</v>
+        <v>9483.948765955189</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7028.046058134471</v>
+        <v>5496.795799658239</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206835.062212584</v>
+        <v>228564.2262836001</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>932.885994400345</v>
+        <v>738.1143148937871</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23265.45864998872</v>
+        <v>25607.45361530723</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11975.08424306613</v>
+        <v>13211.96224793503</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23947.97023746648</v>
+        <v>24990.07656282882</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-682.5115874777621</v>
+        <v>617.3770524784122</v>
       </c>
     </row>
   </sheetData>
